--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BetaFiberA-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BetaFiberA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1093,7 @@
         <v>0.9949723045216571</v>
       </c>
       <c r="L13">
-        <v>0.9934699647258991</v>
+        <v>0.9934699647258994</v>
       </c>
       <c r="M13">
         <v>0.9962117682052745</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9995009884330208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.115166809739337</v>
+      </c>
+      <c r="D16">
+        <v>0.8915662422063955</v>
+      </c>
+      <c r="E16">
+        <v>1.023812253641894</v>
+      </c>
+      <c r="F16">
+        <v>0.9546689374693714</v>
+      </c>
+      <c r="G16">
+        <v>1.115166809739337</v>
+      </c>
+      <c r="H16">
+        <v>0.8915662422063955</v>
+      </c>
+      <c r="I16">
+        <v>1.041976197050596</v>
+      </c>
+      <c r="J16">
+        <v>0.9555254482565383</v>
+      </c>
+      <c r="K16">
+        <v>1.024786699429239</v>
+      </c>
+      <c r="L16">
+        <v>0.9128234721908246</v>
+      </c>
+      <c r="M16">
+        <v>1.115166809739337</v>
+      </c>
+      <c r="N16">
+        <v>0.9576892479241449</v>
+      </c>
+      <c r="O16">
+        <v>0.9963035607642496</v>
+      </c>
+      <c r="P16">
+        <v>0.9900407574980246</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.115166809739337</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW20.xlsx
@@ -1096,7 +1096,7 @@
         <v>0.9949723045216571</v>
       </c>
       <c r="L13">
-        <v>0.9934699647258994</v>
+        <v>0.9934699647258991</v>
       </c>
       <c r="M13">
         <v>0.9962117682052745</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.029407999999999</v>
+        <v>1.115166809739337</v>
       </c>
       <c r="D10">
-        <v>0.4869919999999998</v>
+        <v>0.8915662422063955</v>
       </c>
       <c r="E10">
-        <v>1.291787999999999</v>
+        <v>1.023812253641894</v>
       </c>
       <c r="F10">
-        <v>0.8960200000000019</v>
+        <v>0.9546689374693714</v>
       </c>
       <c r="G10">
-        <v>1.029407999999999</v>
+        <v>1.115166809739337</v>
       </c>
       <c r="H10">
-        <v>0.4869919999999998</v>
+        <v>0.8915662422063955</v>
       </c>
       <c r="I10">
-        <v>1.200643999999998</v>
+        <v>1.041976197050596</v>
       </c>
       <c r="J10">
-        <v>0.9984600000000017</v>
+        <v>0.9555254482565383</v>
       </c>
       <c r="K10">
-        <v>1.038628000000001</v>
+        <v>1.024786699429239</v>
       </c>
       <c r="L10">
-        <v>0.705972</v>
+        <v>0.9128234721908246</v>
       </c>
       <c r="M10">
-        <v>1.029407999999999</v>
+        <v>1.115166809739337</v>
       </c>
       <c r="N10">
-        <v>0.8893899999999996</v>
+        <v>0.9576892479241449</v>
       </c>
       <c r="O10">
-        <v>0.926052</v>
+        <v>0.9963035607642496</v>
       </c>
       <c r="P10">
-        <v>0.9559890000000002</v>
+        <v>0.9900407574980246</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.18</v>
+        <v>1.096974591606817</v>
       </c>
       <c r="D11">
-        <v>0.3440374999999994</v>
+        <v>0.5448207383601094</v>
       </c>
       <c r="E11">
-        <v>1.32</v>
+        <v>1.206229707035064</v>
       </c>
       <c r="F11">
-        <v>0.8497249999999993</v>
+        <v>0.9082409210891538</v>
       </c>
       <c r="G11">
-        <v>1.18</v>
+        <v>1.096974591606817</v>
       </c>
       <c r="H11">
-        <v>0.3440374999999994</v>
+        <v>0.5448207383601094</v>
       </c>
       <c r="I11">
-        <v>1.26</v>
+        <v>1.166963711235868</v>
       </c>
       <c r="J11">
-        <v>0.95</v>
+        <v>0.9739671810769147</v>
       </c>
       <c r="K11">
-        <v>1.09</v>
+        <v>1.048120215841754</v>
       </c>
       <c r="L11">
-        <v>0.61</v>
+        <v>0.7262239715285072</v>
       </c>
       <c r="M11">
-        <v>1.18</v>
+        <v>1.096974591606817</v>
       </c>
       <c r="N11">
-        <v>0.8320187499999997</v>
+        <v>0.8755252226975867</v>
       </c>
       <c r="O11">
-        <v>0.9234406249999997</v>
+        <v>0.939066489522786</v>
       </c>
       <c r="P11">
-        <v>0.9504703124999998</v>
+        <v>0.9589426297217736</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.104895186739199</v>
+        <v>1.095117689265112</v>
       </c>
       <c r="D12">
-        <v>0.6155637940223991</v>
+        <v>0.5457907679637132</v>
       </c>
       <c r="E12">
-        <v>1.183015575756799</v>
+        <v>1.206258352100474</v>
       </c>
       <c r="F12">
-        <v>0.9115659839488007</v>
+        <v>0.9087148055436642</v>
       </c>
       <c r="G12">
-        <v>1.104895186739199</v>
+        <v>1.095117689265112</v>
       </c>
       <c r="H12">
-        <v>0.6155637940223991</v>
+        <v>0.5457907679637132</v>
       </c>
       <c r="I12">
-        <v>1.147637322342399</v>
+        <v>1.166509355552483</v>
       </c>
       <c r="J12">
-        <v>0.9674849611776006</v>
+        <v>0.9745735715070283</v>
       </c>
       <c r="K12">
-        <v>1.0510405751808</v>
+        <v>1.047664360622501</v>
       </c>
       <c r="L12">
-        <v>0.7716436930560011</v>
+        <v>0.7270692171634052</v>
       </c>
       <c r="M12">
-        <v>1.104840682291199</v>
+        <v>1.095117689265112</v>
       </c>
       <c r="N12">
-        <v>0.899289684889599</v>
+        <v>0.8760245600320937</v>
       </c>
       <c r="O12">
-        <v>0.9537601351167994</v>
+        <v>0.9389704037182409</v>
       </c>
       <c r="P12">
-        <v>0.9691058865279999</v>
+        <v>0.9589622649647976</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9962983116975072</v>
+        <v>1.096422243353929</v>
       </c>
       <c r="D13">
-        <v>0.9957954337404376</v>
+        <v>0.544969364023426</v>
       </c>
       <c r="E13">
-        <v>0.994017129975389</v>
+        <v>1.206351570145809</v>
       </c>
       <c r="F13">
-        <v>0.993972513494925</v>
+        <v>0.9083372043811949</v>
       </c>
       <c r="G13">
-        <v>0.9962983116975072</v>
+        <v>1.096422243353929</v>
       </c>
       <c r="H13">
-        <v>0.9957954337404376</v>
+        <v>0.544969364023426</v>
       </c>
       <c r="I13">
-        <v>0.994290846563595</v>
+        <v>1.166900594003313</v>
       </c>
       <c r="J13">
-        <v>0.9950973143699271</v>
+        <v>0.9741297100388955</v>
       </c>
       <c r="K13">
-        <v>0.9949723045216571</v>
+        <v>1.047949573486826</v>
       </c>
       <c r="L13">
-        <v>0.9934699647258991</v>
+        <v>0.7263491172225909</v>
       </c>
       <c r="M13">
-        <v>0.9962117682052745</v>
+        <v>1.096422243353929</v>
       </c>
       <c r="N13">
-        <v>0.9949062818579133</v>
+        <v>0.8756604670846173</v>
       </c>
       <c r="O13">
-        <v>0.9950208472270647</v>
+        <v>0.9390200954760897</v>
       </c>
       <c r="P13">
-        <v>0.9947392273861672</v>
+        <v>0.9589261720819979</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9745817529507214</v>
+        <v>1.029407999999999</v>
       </c>
       <c r="D14">
-        <v>1.004964708057558</v>
+        <v>0.4869919999999998</v>
       </c>
       <c r="E14">
-        <v>0.9935111825186486</v>
+        <v>1.291787999999999</v>
       </c>
       <c r="F14">
-        <v>1.001348380905764</v>
+        <v>0.8960200000000019</v>
       </c>
       <c r="G14">
-        <v>0.9745817529507214</v>
+        <v>1.029407999999999</v>
       </c>
       <c r="H14">
-        <v>1.004964708057558</v>
+        <v>0.4869919999999998</v>
       </c>
       <c r="I14">
-        <v>0.9886556640913681</v>
+        <v>1.200643999999998</v>
       </c>
       <c r="J14">
-        <v>1.003907107848957</v>
+        <v>0.9984600000000017</v>
       </c>
       <c r="K14">
-        <v>0.9914612498430684</v>
+        <v>1.038628000000001</v>
       </c>
       <c r="L14">
-        <v>1.004697572469532</v>
+        <v>0.705972</v>
       </c>
       <c r="M14">
-        <v>0.9745817529507214</v>
+        <v>1.029407999999999</v>
       </c>
       <c r="N14">
-        <v>0.9992379452881035</v>
+        <v>0.8893899999999996</v>
       </c>
       <c r="O14">
-        <v>0.9936015061081729</v>
+        <v>0.926052</v>
       </c>
       <c r="P14">
-        <v>0.9953909523357021</v>
+        <v>0.9559890000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9557887077807532</v>
+        <v>1.18</v>
       </c>
       <c r="D15">
-        <v>1.058361955917714</v>
+        <v>0.3440374999999994</v>
       </c>
       <c r="E15">
-        <v>0.9810380576459984</v>
+        <v>1.32</v>
       </c>
       <c r="F15">
-        <v>1.008054671435751</v>
+        <v>0.8497249999999993</v>
       </c>
       <c r="G15">
-        <v>0.9557887077807532</v>
+        <v>1.18</v>
       </c>
       <c r="H15">
-        <v>1.058361955917714</v>
+        <v>0.3440374999999994</v>
       </c>
       <c r="I15">
-        <v>0.9702667987754933</v>
+        <v>1.26</v>
       </c>
       <c r="J15">
-        <v>1.005686714551694</v>
+        <v>0.95</v>
       </c>
       <c r="K15">
-        <v>0.9801923569071499</v>
+        <v>1.09</v>
       </c>
       <c r="L15">
-        <v>1.036618644449613</v>
+        <v>0.61</v>
       </c>
       <c r="M15">
-        <v>0.9556568923617665</v>
+        <v>1.18</v>
       </c>
       <c r="N15">
-        <v>1.019700006781856</v>
+        <v>0.8320187499999997</v>
       </c>
       <c r="O15">
-        <v>1.000810848195054</v>
+        <v>0.9234406249999997</v>
       </c>
       <c r="P15">
-        <v>0.9995009884330208</v>
+        <v>0.9504703124999998</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.115166809739337</v>
+        <v>1.104895186739199</v>
       </c>
       <c r="D16">
-        <v>0.8915662422063955</v>
+        <v>0.6155637940223991</v>
       </c>
       <c r="E16">
-        <v>1.023812253641894</v>
+        <v>1.183015575756799</v>
       </c>
       <c r="F16">
-        <v>0.9546689374693714</v>
+        <v>0.9115659839488007</v>
       </c>
       <c r="G16">
-        <v>1.115166809739337</v>
+        <v>1.104895186739199</v>
       </c>
       <c r="H16">
-        <v>0.8915662422063955</v>
+        <v>0.6155637940223991</v>
       </c>
       <c r="I16">
-        <v>1.041976197050596</v>
+        <v>1.147637322342399</v>
       </c>
       <c r="J16">
-        <v>0.9555254482565383</v>
+        <v>0.9674849611776006</v>
       </c>
       <c r="K16">
-        <v>1.024786699429239</v>
+        <v>1.0510405751808</v>
       </c>
       <c r="L16">
-        <v>0.9128234721908246</v>
+        <v>0.7716436930560011</v>
       </c>
       <c r="M16">
-        <v>1.115166809739337</v>
+        <v>1.104840682291199</v>
       </c>
       <c r="N16">
-        <v>0.9576892479241449</v>
+        <v>0.899289684889599</v>
       </c>
       <c r="O16">
-        <v>0.9963035607642496</v>
+        <v>0.9537601351167994</v>
       </c>
       <c r="P16">
-        <v>0.9900407574980246</v>
+        <v>0.9691058865279999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9962983116975072</v>
+      </c>
+      <c r="D17">
+        <v>0.9957954337404376</v>
+      </c>
+      <c r="E17">
+        <v>0.994017129975389</v>
+      </c>
+      <c r="F17">
+        <v>0.993972513494925</v>
+      </c>
+      <c r="G17">
+        <v>0.9962983116975072</v>
+      </c>
+      <c r="H17">
+        <v>0.9957954337404376</v>
+      </c>
+      <c r="I17">
+        <v>0.994290846563595</v>
+      </c>
+      <c r="J17">
+        <v>0.9950973143699271</v>
+      </c>
+      <c r="K17">
+        <v>0.9949723045216571</v>
+      </c>
+      <c r="L17">
+        <v>0.9934699647258994</v>
+      </c>
+      <c r="M17">
+        <v>0.9962117682052745</v>
+      </c>
+      <c r="N17">
+        <v>0.9949062818579133</v>
+      </c>
+      <c r="O17">
+        <v>0.9950208472270647</v>
+      </c>
+      <c r="P17">
+        <v>0.9947392273861672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9745817529507214</v>
+      </c>
+      <c r="D18">
+        <v>1.004964708057558</v>
+      </c>
+      <c r="E18">
+        <v>0.9935111825186486</v>
+      </c>
+      <c r="F18">
+        <v>1.001348380905764</v>
+      </c>
+      <c r="G18">
+        <v>0.9745817529507214</v>
+      </c>
+      <c r="H18">
+        <v>1.004964708057558</v>
+      </c>
+      <c r="I18">
+        <v>0.9886556640913681</v>
+      </c>
+      <c r="J18">
+        <v>1.003907107848957</v>
+      </c>
+      <c r="K18">
+        <v>0.9914612498430684</v>
+      </c>
+      <c r="L18">
+        <v>1.004697572469532</v>
+      </c>
+      <c r="M18">
+        <v>0.9745817529507214</v>
+      </c>
+      <c r="N18">
+        <v>0.9992379452881035</v>
+      </c>
+      <c r="O18">
+        <v>0.9936015061081729</v>
+      </c>
+      <c r="P18">
+        <v>0.9953909523357021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9557887077807532</v>
+      </c>
+      <c r="D19">
+        <v>1.058361955917714</v>
+      </c>
+      <c r="E19">
+        <v>0.9810380576459984</v>
+      </c>
+      <c r="F19">
+        <v>1.008054671435751</v>
+      </c>
+      <c r="G19">
+        <v>0.9557887077807532</v>
+      </c>
+      <c r="H19">
+        <v>1.058361955917714</v>
+      </c>
+      <c r="I19">
+        <v>0.9702667987754933</v>
+      </c>
+      <c r="J19">
+        <v>1.005686714551694</v>
+      </c>
+      <c r="K19">
+        <v>0.9801923569071499</v>
+      </c>
+      <c r="L19">
+        <v>1.036618644449613</v>
+      </c>
+      <c r="M19">
+        <v>0.9556568923617665</v>
+      </c>
+      <c r="N19">
+        <v>1.019700006781856</v>
+      </c>
+      <c r="O19">
+        <v>1.000810848195054</v>
+      </c>
+      <c r="P19">
+        <v>0.9995009884330208</v>
       </c>
     </row>
   </sheetData>
